--- a/mbs-perturbation/chain/decisionTree/chain-decisionTree-results.xlsx
+++ b/mbs-perturbation/chain/decisionTree/chain-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125</v>
+        <v>0.203125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7748917748917749</v>
+        <v>0.7011784511784512</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4804347826086957</v>
+        <v>0.9358585858585859</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.09523809523809522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.9751269035532995</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9978260869565218</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.569083694083694</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2387931034482758</v>
+        <v>0.4563421828908554</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.280952380952381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2213636363636364</v>
+        <v>0.200625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6806305288913984</v>
+        <v>0.7180677087529881</v>
       </c>
     </row>
   </sheetData>
